--- a/tools/excel/cisco/mappings/mapping-cisco-ccf-v3.0-to-secnumcloud-3.2.xlsx
+++ b/tools/excel/cisco/mappings/mapping-cisco-ccf-v3.0-to-secnumcloud-3.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JulianDoloir\Desktop\Repos\intuitem\ciso-assistant-community\tools\excel\cisco\mappings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7109AFB-D92F-4BE7-9BAD-EBA22FFE7115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BCF47E-6036-4D40-9385-DC25145254DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6410" yWindow="-19780" windowWidth="22100" windowHeight="17130" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3615" yWindow="-14205" windowWidth="20865" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="library_meta" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8129" uniqueCount="5622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8128" uniqueCount="5623">
   <si>
     <t>type</t>
   </si>
@@ -17257,6 +17257,9 @@
   </si>
   <si>
     <t># Note</t>
+  </si>
+  <si>
+    <t>Cisco</t>
   </si>
 </sst>
 </file>
@@ -17598,7 +17601,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -17625,8 +17630,8 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
+      <c r="B3">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -17666,7 +17671,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>5622</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -17674,7 +17679,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>5622</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -17790,7 +17795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F687"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A596" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G630" sqref="G630"/>
     </sheetView>
